--- a/dataExcel/【AK-47 _ 前线迷雾 (破损不堪)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【AK-47 _ 前线迷雾 (破损不堪)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 15:07:48</v>
+        <v>2023-09-19 10:27:44</v>
       </c>
       <c r="B8">
-        <v>81.45</v>
+        <v>81</v>
       </c>
       <c r="C8">
-        <v>103.16</v>
+        <v>97.56</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0.16</v>
@@ -460,16 +460,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 20:20:09</v>
+        <v>2023-09-19 15:37:38</v>
       </c>
       <c r="B9">
-        <v>81.45</v>
+        <v>81</v>
       </c>
       <c r="C9">
-        <v>103.16</v>
+        <v>97.56</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0.16</v>
@@ -478,7 +478,7 @@
         <v>0.13</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>73</v>
@@ -489,13 +489,13 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 01:33:53</v>
+        <v>2023-09-19 20:47:37</v>
       </c>
       <c r="B10">
-        <v>81.45</v>
+        <v>81</v>
       </c>
       <c r="C10">
-        <v>103.16</v>
+        <v>97.56</v>
       </c>
       <c r="D10">
         <v>28</v>
@@ -507,7 +507,7 @@
         <v>0.13</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>73</v>
@@ -518,13 +518,13 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 01:40:32</v>
+        <v>2023-09-20 01:57:35</v>
       </c>
       <c r="B11">
-        <v>81.45</v>
+        <v>81</v>
       </c>
       <c r="C11">
-        <v>103.16</v>
+        <v>97.56</v>
       </c>
       <c r="D11">
         <v>28</v>
@@ -536,7 +536,7 @@
         <v>0.13</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>73</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 06:47:44</v>
+        <v>2023-09-20 07:07:52</v>
       </c>
       <c r="B12">
-        <v>81.45</v>
+        <v>81</v>
       </c>
       <c r="C12">
-        <v>90.61</v>
+        <v>97.56</v>
       </c>
       <c r="D12">
         <v>28</v>
@@ -565,7 +565,7 @@
         <v>0.13</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>73</v>
@@ -576,16 +576,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 11:57:13</v>
+        <v>2023-09-20 12:17:42</v>
       </c>
       <c r="B13">
-        <v>81.45</v>
+        <v>81</v>
       </c>
       <c r="C13">
-        <v>90.61</v>
+        <v>97.56</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0.16</v>
@@ -594,27 +594,27 @@
         <v>0.13</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 17:07:43</v>
+        <v>2023-09-20 17:27:41</v>
       </c>
       <c r="B14">
-        <v>81.45</v>
+        <v>81</v>
       </c>
       <c r="C14">
-        <v>90.61</v>
+        <v>97.56</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0.16</v>
@@ -623,27 +623,27 @@
         <v>0.13</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 22:17:19</v>
+        <v>2023-09-20 22:37:44</v>
       </c>
       <c r="B15">
-        <v>81.45</v>
+        <v>80</v>
       </c>
       <c r="C15">
-        <v>90.61</v>
+        <v>97.56</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0.16</v>
@@ -652,24 +652,24 @@
         <v>0.13</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 03:27:29</v>
+        <v>2023-09-21 03:47:42</v>
       </c>
       <c r="B16">
-        <v>81.45</v>
+        <v>80</v>
       </c>
       <c r="C16">
-        <v>99</v>
+        <v>95.88</v>
       </c>
       <c r="D16">
         <v>27</v>
@@ -681,27 +681,27 @@
         <v>0.13</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 08:37:25</v>
+        <v>2023-09-21 08:57:41</v>
       </c>
       <c r="B17">
-        <v>81.45</v>
+        <v>79.98</v>
       </c>
       <c r="C17">
-        <v>99</v>
+        <v>95.88</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0.16</v>
@@ -710,178 +710,178 @@
         <v>0.13</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 13:47:23</v>
+        <v>2023-09-21 14:07:38</v>
       </c>
       <c r="B18">
-        <v>81.34</v>
+        <v>79.9</v>
       </c>
       <c r="C18">
-        <v>99</v>
+        <v>95.88</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
+        <v>0.2</v>
+      </c>
+      <c r="F18">
         <v>0.16</v>
       </c>
-      <c r="F18">
-        <v>0.13</v>
-      </c>
       <c r="G18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 18:57:22</v>
+        <v>2023-09-21 19:17:57</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>79.9</v>
       </c>
       <c r="C19">
-        <v>99</v>
+        <v>95.88</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
+        <v>0.2</v>
+      </c>
+      <c r="F19">
         <v>0.16</v>
       </c>
-      <c r="F19">
-        <v>0.13</v>
-      </c>
       <c r="G19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>73</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 00:07:21</v>
+        <v>2023-09-22 00:28:35</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>81.45</v>
       </c>
       <c r="C20">
-        <v>99</v>
+        <v>95.88</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
         <v>0.16</v>
       </c>
-      <c r="F20">
-        <v>0.13</v>
-      </c>
       <c r="G20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H20">
         <v>73</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 05:18:04</v>
+        <v>2023-09-22 05:37:55</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>81.45</v>
       </c>
       <c r="C21">
-        <v>97.56</v>
+        <v>96.07</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="F21">
         <v>0.16</v>
       </c>
-      <c r="F21">
-        <v>0.13</v>
-      </c>
       <c r="G21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H21">
         <v>73</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 10:27:44</v>
+        <v>2023-09-22 10:47:55</v>
       </c>
       <c r="B22">
-        <v>81</v>
+        <v>81.45</v>
       </c>
       <c r="C22">
-        <v>97.56</v>
+        <v>96.07</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E22">
+        <v>0.2</v>
+      </c>
+      <c r="F22">
         <v>0.16</v>
       </c>
-      <c r="F22">
-        <v>0.13</v>
-      </c>
       <c r="G22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H22">
         <v>73</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 15:37:38</v>
+        <v>2023-09-22 15:57:55</v>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>81.45</v>
       </c>
       <c r="C23">
-        <v>97.56</v>
+        <v>96.07</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F23">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -890,27 +890,27 @@
         <v>73</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-19 20:47:37</v>
+        <v>2023-09-22 21:00:30</v>
       </c>
       <c r="B24">
-        <v>81</v>
+        <v>81.45</v>
       </c>
       <c r="C24">
-        <v>97.56</v>
+        <v>96.07</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E24">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F24">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -919,111 +919,111 @@
         <v>73</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-20 01:57:35</v>
+        <v>2023-09-23 02:10:29</v>
       </c>
       <c r="B25">
-        <v>81</v>
+        <v>81.45</v>
       </c>
       <c r="C25">
-        <v>97.56</v>
+        <v>89.31</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F25">
         <v>0.13</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25">
         <v>73</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 07:07:52</v>
+        <v>2023-09-23 07:20:27</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>81.45</v>
       </c>
       <c r="C26">
-        <v>97.56</v>
+        <v>89.31</v>
       </c>
       <c r="D26">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E26">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F26">
         <v>0.13</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>73</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 12:17:42</v>
+        <v>2023-09-23 12:30:27</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>81.45</v>
       </c>
       <c r="C27">
-        <v>97.56</v>
+        <v>89.31</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F27">
         <v>0.13</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27">
         <v>73</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 17:27:41</v>
+        <v>2023-09-23 17:40:28</v>
       </c>
       <c r="B28">
-        <v>81</v>
+        <v>81.45</v>
       </c>
       <c r="C28">
-        <v>97.56</v>
+        <v>89.31</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F28">
         <v>0.13</v>
@@ -1035,27 +1035,27 @@
         <v>73</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-20 22:37:44</v>
+        <v>2023-09-23 22:50:26</v>
       </c>
       <c r="B29">
-        <v>80</v>
+        <v>81.45</v>
       </c>
       <c r="C29">
-        <v>97.56</v>
+        <v>89.31</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F29">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G29">
         <v>9</v>
@@ -1069,86 +1069,86 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-21 03:47:42</v>
+        <v>2023-09-24 04:00:41</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>81.45</v>
       </c>
       <c r="C30">
-        <v>95.88</v>
+        <v>93.73</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F30">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G30">
         <v>9</v>
       </c>
       <c r="H30">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-21 08:57:41</v>
+        <v>2023-09-24 09:10:45</v>
       </c>
       <c r="B31">
-        <v>79.98</v>
+        <v>81.45</v>
       </c>
       <c r="C31">
-        <v>95.88</v>
+        <v>93.73</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E31">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F31">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-21 14:07:38</v>
+        <v>2023-09-24 14:20:42</v>
       </c>
       <c r="B32">
-        <v>79.9</v>
+        <v>81.45</v>
       </c>
       <c r="C32">
-        <v>95.88</v>
+        <v>93.73</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E32">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F32">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H32">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32">
         <v>5</v>
@@ -1156,25 +1156,25 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-21 19:17:57</v>
+        <v>2023-09-24 19:30:40</v>
       </c>
       <c r="B33">
-        <v>79.9</v>
+        <v>81.45</v>
       </c>
       <c r="C33">
-        <v>95.88</v>
+        <v>93.73</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E33">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F33">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <v>73</v>
@@ -1185,25 +1185,25 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-22 00:28:35</v>
+        <v>2023-09-25 00:40:39</v>
       </c>
       <c r="B34">
         <v>81.45</v>
       </c>
       <c r="C34">
-        <v>95.88</v>
+        <v>93.73</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E34">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F34">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H34">
         <v>73</v>
@@ -1214,25 +1214,25 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-22 05:37:55</v>
+        <v>2023-09-25 05:51:04</v>
       </c>
       <c r="B35">
         <v>81.45</v>
       </c>
       <c r="C35">
-        <v>96.07</v>
+        <v>93.73</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F35">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H35">
         <v>73</v>
@@ -1243,25 +1243,25 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-22 10:47:55</v>
+        <v>2023-09-25 11:01:22</v>
       </c>
       <c r="B36">
         <v>81.45</v>
       </c>
       <c r="C36">
-        <v>96.07</v>
+        <v>93.73</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E36">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F36">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H36">
         <v>73</v>
@@ -1272,141 +1272,141 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-22 15:57:55</v>
+        <v>2023-09-25 16:10:57</v>
       </c>
       <c r="B37">
         <v>81.45</v>
       </c>
       <c r="C37">
-        <v>96.07</v>
+        <v>93.73</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E37">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="F37">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H37">
         <v>73</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-22 21:00:30</v>
+        <v>2023-09-25 21:20:55</v>
       </c>
       <c r="B38">
         <v>81.45</v>
       </c>
       <c r="C38">
-        <v>96.07</v>
+        <v>93.73</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="F38">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="G38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H38">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-23 02:10:29</v>
+        <v>2023-09-26 02:30:54</v>
       </c>
       <c r="B39">
-        <v>81.45</v>
+        <v>93</v>
       </c>
       <c r="C39">
-        <v>89.31</v>
+        <v>96.92</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F39">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H39">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-23 07:20:27</v>
+        <v>2023-09-26 07:41:13</v>
       </c>
       <c r="B40">
-        <v>81.45</v>
+        <v>93</v>
       </c>
       <c r="C40">
-        <v>89.31</v>
+        <v>96.92</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F40">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H40">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I40">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-23 12:30:27</v>
+        <v>2023-09-26 12:51:26</v>
       </c>
       <c r="B41">
-        <v>81.45</v>
+        <v>90</v>
       </c>
       <c r="C41">
-        <v>89.31</v>
+        <v>96.92</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E41">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F41">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H41">
         <v>73</v>
@@ -1417,28 +1417,28 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-23 17:40:28</v>
+        <v>2023-09-26 18:01:11</v>
       </c>
       <c r="B42">
-        <v>81.45</v>
+        <v>90</v>
       </c>
       <c r="C42">
-        <v>89.31</v>
+        <v>96.92</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E42">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="F42">
-        <v>0.13</v>
+        <v>0.07</v>
       </c>
       <c r="G42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H42">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42">
         <v>5</v>
@@ -1446,57 +1446,57 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-23 22:50:26</v>
+        <v>2023-09-26 23:11:10</v>
       </c>
       <c r="B43">
-        <v>81.45</v>
+        <v>90</v>
       </c>
       <c r="C43">
-        <v>89.31</v>
+        <v>96.92</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F43">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="G43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H43">
         <v>73</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-24 04:00:41</v>
+        <v>2023-09-27 04:21:10</v>
       </c>
       <c r="B44">
-        <v>81.45</v>
+        <v>90</v>
       </c>
       <c r="C44">
-        <v>93.73</v>
+        <v>94.97</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E44">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F44">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="G44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H44">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -1504,28 +1504,28 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-24 09:10:45</v>
+        <v>2023-09-27 09:31:09</v>
       </c>
       <c r="B45">
-        <v>81.45</v>
+        <v>98.88</v>
       </c>
       <c r="C45">
-        <v>93.73</v>
+        <v>94.97</v>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F45">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H45">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I45">
         <v>5</v>
@@ -1533,28 +1533,28 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-24 14:20:42</v>
+        <v>2023-09-27 14:37:27</v>
       </c>
       <c r="B46">
-        <v>81.45</v>
+        <v>97.89</v>
       </c>
       <c r="C46">
-        <v>93.73</v>
+        <v>94.97</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F46">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G46">
         <v>9</v>
       </c>
       <c r="H46">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I46">
         <v>5</v>
@@ -1562,25 +1562,25 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-24 19:30:40</v>
+        <v>2023-09-27 19:48:38</v>
       </c>
       <c r="B47">
-        <v>81.45</v>
+        <v>96.99</v>
       </c>
       <c r="C47">
-        <v>93.73</v>
+        <v>94.97</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F47">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H47">
         <v>73</v>
@@ -1591,25 +1591,25 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-25 00:40:39</v>
+        <v>2023-09-28 00:57:34</v>
       </c>
       <c r="B48">
-        <v>81.45</v>
+        <v>95</v>
       </c>
       <c r="C48">
-        <v>93.73</v>
+        <v>94.97</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E48">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F48">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H48">
         <v>73</v>
@@ -1620,22 +1620,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-25 05:51:04</v>
+        <v>2023-09-28 06:07:35</v>
       </c>
       <c r="B49">
-        <v>81.45</v>
+        <v>95</v>
       </c>
       <c r="C49">
-        <v>93.73</v>
+        <v>95.94</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E49">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F49">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -1649,83 +1649,83 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-25 11:01:22</v>
+        <v>2023-09-28 11:17:33</v>
       </c>
       <c r="B50">
-        <v>81.45</v>
+        <v>94.66</v>
       </c>
       <c r="C50">
-        <v>93.73</v>
+        <v>95.94</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E50">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F50">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G50">
         <v>9</v>
       </c>
       <c r="H50">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-25 16:10:57</v>
+        <v>2023-09-28 16:27:33</v>
       </c>
       <c r="B51">
-        <v>81.45</v>
+        <v>93</v>
       </c>
       <c r="C51">
-        <v>93.73</v>
+        <v>95.94</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F51">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H51">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-25 21:20:55</v>
+        <v>2023-09-28 21:37:31</v>
       </c>
       <c r="B52">
-        <v>81.45</v>
+        <v>93</v>
       </c>
       <c r="C52">
-        <v>93.73</v>
+        <v>95.94</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E52">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F52">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H52">
         <v>71</v>
@@ -1736,277 +1736,277 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-26 02:30:54</v>
+        <v>2023-09-29 02:47:30</v>
       </c>
       <c r="B53">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C53">
-        <v>96.92</v>
+        <v>94.77</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E53">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F53">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H53">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-26 07:41:13</v>
+        <v>2023-09-29 07:57:29</v>
       </c>
       <c r="B54">
-        <v>93</v>
+        <v>94.66</v>
       </c>
       <c r="C54">
-        <v>96.92</v>
+        <v>94.77</v>
       </c>
       <c r="D54">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E54">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F54">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H54">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-26 12:51:26</v>
+        <v>2023-09-29 13:07:28</v>
       </c>
       <c r="B55">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C55">
-        <v>96.92</v>
+        <v>94.77</v>
       </c>
       <c r="D55">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E55">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F55">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H55">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-26 18:01:11</v>
+        <v>2023-09-29 18:18:27</v>
       </c>
       <c r="B56">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C56">
-        <v>96.92</v>
+        <v>94.77</v>
       </c>
       <c r="D56">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E56">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F56">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G56">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H56">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-26 23:11:10</v>
+        <v>2023-09-29 23:28:20</v>
       </c>
       <c r="B57">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C57">
-        <v>96.92</v>
+        <v>94.77</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F57">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H57">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-27 04:21:10</v>
+        <v>2023-09-30 04:38:05</v>
       </c>
       <c r="B58">
-        <v>90</v>
+        <v>89.99</v>
       </c>
       <c r="C58">
-        <v>94.97</v>
+        <v>98.48</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E58">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F58">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H58">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-27 09:31:09</v>
+        <v>2023-09-30 09:48:39</v>
       </c>
       <c r="B59">
-        <v>98.88</v>
+        <v>89.99</v>
       </c>
       <c r="C59">
-        <v>94.97</v>
+        <v>98.48</v>
       </c>
       <c r="D59">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F59">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H59">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I59">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-27 14:37:27</v>
+        <v>2023-09-30 14:58:11</v>
       </c>
       <c r="B60">
-        <v>97.89</v>
+        <v>89</v>
       </c>
       <c r="C60">
-        <v>94.97</v>
+        <v>98.48</v>
       </c>
       <c r="D60">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F60">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I60">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-27 19:48:38</v>
+        <v>2023-09-30 20:08:27</v>
       </c>
       <c r="B61">
-        <v>96.99</v>
+        <v>88.45</v>
       </c>
       <c r="C61">
-        <v>94.97</v>
+        <v>98.48</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E61">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F61">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-28 00:57:34</v>
+        <v>2023-10-01 01:18:18</v>
       </c>
       <c r="B62">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C62">
-        <v>94.97</v>
+        <v>98.48</v>
       </c>
       <c r="D62">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E62">
         <v>0.1</v>
@@ -2015,27 +2015,27 @@
         <v>0.08</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H62">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-28 06:07:35</v>
+        <v>2023-10-01 06:28:18</v>
       </c>
       <c r="B63">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C63">
-        <v>95.94</v>
+        <v>99.58</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E63">
         <v>0.1</v>
@@ -2047,24 +2047,24 @@
         <v>9</v>
       </c>
       <c r="H63">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-28 11:17:33</v>
+        <v>2023-10-01 11:38:32</v>
       </c>
       <c r="B64">
-        <v>94.66</v>
+        <v>88</v>
       </c>
       <c r="C64">
-        <v>95.94</v>
+        <v>99.58</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E64">
         <v>0.1</v>
@@ -2076,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="H64">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -2084,16 +2084,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-28 16:27:33</v>
+        <v>2023-10-01 16:48:25</v>
       </c>
       <c r="B65">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C65">
-        <v>95.94</v>
+        <v>99.58</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E65">
         <v>0.1</v>
@@ -2105,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="H65">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -2113,16 +2113,16 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-28 21:37:31</v>
+        <v>2023-10-01 21:58:25</v>
       </c>
       <c r="B66">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C66">
-        <v>95.94</v>
+        <v>99.58</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E66">
         <v>0.1</v>
@@ -2134,24 +2134,24 @@
         <v>9</v>
       </c>
       <c r="H66">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-29 02:47:30</v>
+        <v>2023-10-02 03:08:24</v>
       </c>
       <c r="B67">
-        <v>90</v>
+        <v>86.5</v>
       </c>
       <c r="C67">
-        <v>94.77</v>
+        <v>98.87</v>
       </c>
       <c r="D67">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E67">
         <v>0.1</v>
@@ -2160,27 +2160,27 @@
         <v>0.08</v>
       </c>
       <c r="G67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H67">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-29 07:57:29</v>
+        <v>2023-10-02 08:18:24</v>
       </c>
       <c r="B68">
-        <v>94.66</v>
+        <v>86.5</v>
       </c>
       <c r="C68">
-        <v>94.77</v>
+        <v>98.87</v>
       </c>
       <c r="D68">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E68">
         <v>0.1</v>
@@ -2189,27 +2189,27 @@
         <v>0.08</v>
       </c>
       <c r="G68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H68">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-29 13:07:28</v>
+        <v>2023-10-02 13:28:23</v>
       </c>
       <c r="B69">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C69">
-        <v>94.77</v>
+        <v>98.87</v>
       </c>
       <c r="D69">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E69">
         <v>0.1</v>
@@ -2218,27 +2218,27 @@
         <v>0.08</v>
       </c>
       <c r="G69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H69">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-29 18:18:27</v>
+        <v>2023-10-02 18:38:23</v>
       </c>
       <c r="B70">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C70">
-        <v>94.77</v>
+        <v>98.87</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E70">
         <v>0.1</v>
@@ -2247,24 +2247,24 @@
         <v>0.08</v>
       </c>
       <c r="G70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H70">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-29 23:28:20</v>
+        <v>2023-10-02 23:48:24</v>
       </c>
       <c r="B71">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C71">
-        <v>94.77</v>
+        <v>98.87</v>
       </c>
       <c r="D71">
         <v>27</v>
@@ -2276,27 +2276,27 @@
         <v>0.08</v>
       </c>
       <c r="G71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H71">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-30 04:38:05</v>
+        <v>2023-10-03 04:58:42</v>
       </c>
       <c r="B72">
-        <v>89.99</v>
+        <v>85</v>
       </c>
       <c r="C72">
-        <v>98.48</v>
+        <v>98.87</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E72">
         <v>0.1</v>
@@ -2308,24 +2308,24 @@
         <v>8</v>
       </c>
       <c r="H72">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-30 09:48:39</v>
+        <v>2023-10-03 10:08:30</v>
       </c>
       <c r="B73">
-        <v>89.99</v>
+        <v>85</v>
       </c>
       <c r="C73">
-        <v>98.48</v>
+        <v>98.87</v>
       </c>
       <c r="D73">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E73">
         <v>0.1</v>
@@ -2337,24 +2337,24 @@
         <v>8</v>
       </c>
       <c r="H73">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-30 14:58:11</v>
+        <v>2023-10-03 15:11:44</v>
       </c>
       <c r="B74">
-        <v>89</v>
+        <v>88.5</v>
       </c>
       <c r="C74">
-        <v>98.48</v>
+        <v>98.87</v>
       </c>
       <c r="D74">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>0.1</v>
@@ -2366,24 +2366,24 @@
         <v>8</v>
       </c>
       <c r="H74">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-30 20:08:27</v>
+        <v>2023-10-03 20:21:43</v>
       </c>
       <c r="B75">
-        <v>88.45</v>
+        <v>80</v>
       </c>
       <c r="C75">
-        <v>98.48</v>
+        <v>98.87</v>
       </c>
       <c r="D75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E75">
         <v>0.1</v>
@@ -2392,27 +2392,27 @@
         <v>0.08</v>
       </c>
       <c r="G75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H75">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-10-01 01:18:18</v>
+        <v>2023-10-04 01:32:18</v>
       </c>
       <c r="B76">
-        <v>88</v>
+        <v>88.5</v>
       </c>
       <c r="C76">
-        <v>98.48</v>
+        <v>98.87</v>
       </c>
       <c r="D76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E76">
         <v>0.1</v>
@@ -2421,27 +2421,27 @@
         <v>0.08</v>
       </c>
       <c r="G76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H76">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-10-01 06:28:18</v>
+        <v>2023-10-04 06:43:54</v>
       </c>
       <c r="B77">
-        <v>88</v>
+        <v>88.5</v>
       </c>
       <c r="C77">
-        <v>99.58</v>
+        <v>110.37</v>
       </c>
       <c r="D77">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E77">
         <v>0.1</v>
@@ -2450,27 +2450,27 @@
         <v>0.08</v>
       </c>
       <c r="G77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H77">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-10-01 11:38:32</v>
+        <v>2023-10-04 11:51:59</v>
       </c>
       <c r="B78">
-        <v>88</v>
+        <v>88.5</v>
       </c>
       <c r="C78">
-        <v>99.58</v>
+        <v>110.37</v>
       </c>
       <c r="D78">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E78">
         <v>0.1</v>
@@ -2479,27 +2479,27 @@
         <v>0.08</v>
       </c>
       <c r="G78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H78">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-10-01 16:48:25</v>
+        <v>2023-10-04 17:01:59</v>
       </c>
       <c r="B79">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C79">
-        <v>99.58</v>
+        <v>110.37</v>
       </c>
       <c r="D79">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E79">
         <v>0.1</v>
@@ -2508,27 +2508,27 @@
         <v>0.08</v>
       </c>
       <c r="G79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H79">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-10-01 21:58:25</v>
+        <v>2023-10-04 22:11:58</v>
       </c>
       <c r="B80">
-        <v>86</v>
+        <v>89.99</v>
       </c>
       <c r="C80">
-        <v>99.58</v>
+        <v>110.37</v>
       </c>
       <c r="D80">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E80">
         <v>0.1</v>
@@ -2537,27 +2537,27 @@
         <v>0.08</v>
       </c>
       <c r="G80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H80">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-10-02 03:08:24</v>
+        <v>2023-10-05 03:21:58</v>
       </c>
       <c r="B81">
-        <v>86.5</v>
+        <v>89.99</v>
       </c>
       <c r="C81">
-        <v>98.87</v>
+        <v>105.24</v>
       </c>
       <c r="D81">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E81">
         <v>0.1</v>
@@ -2566,27 +2566,27 @@
         <v>0.08</v>
       </c>
       <c r="G81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H81">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-10-02 08:18:24</v>
+        <v>2023-10-05 08:31:58</v>
       </c>
       <c r="B82">
-        <v>86.5</v>
+        <v>89.99</v>
       </c>
       <c r="C82">
-        <v>98.87</v>
+        <v>105.24</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E82">
         <v>0.1</v>
@@ -2595,27 +2595,27 @@
         <v>0.08</v>
       </c>
       <c r="G82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H82">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I82">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-10-02 13:28:23</v>
+        <v>2023-10-05 13:41:58</v>
       </c>
       <c r="B83">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C83">
-        <v>98.87</v>
+        <v>105.24</v>
       </c>
       <c r="D83">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E83">
         <v>0.1</v>
@@ -2624,27 +2624,27 @@
         <v>0.08</v>
       </c>
       <c r="G83">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H83">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-10-02 18:38:23</v>
+        <v>2023-10-05 18:51:57</v>
       </c>
       <c r="B84">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C84">
-        <v>98.87</v>
+        <v>105.24</v>
       </c>
       <c r="D84">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E84">
         <v>0.1</v>
@@ -2653,10 +2653,10 @@
         <v>0.08</v>
       </c>
       <c r="G84">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H84">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I84">
         <v>4</v>
@@ -2664,16 +2664,16 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-10-02 23:48:24</v>
+        <v>2023-10-06 00:02:19</v>
       </c>
       <c r="B85">
-        <v>85</v>
+        <v>87.8</v>
       </c>
       <c r="C85">
-        <v>98.87</v>
+        <v>105.24</v>
       </c>
       <c r="D85">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E85">
         <v>0.1</v>
@@ -2682,27 +2682,27 @@
         <v>0.08</v>
       </c>
       <c r="G85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H85">
         <v>71</v>
       </c>
       <c r="I85">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-10-03 04:58:42</v>
+        <v>2023-10-06 05:11:53</v>
       </c>
       <c r="B86">
-        <v>85</v>
+        <v>87.8</v>
       </c>
       <c r="C86">
-        <v>98.87</v>
+        <v>105.24</v>
       </c>
       <c r="D86">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E86">
         <v>0.1</v>
@@ -2714,24 +2714,24 @@
         <v>8</v>
       </c>
       <c r="H86">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I86">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-10-03 10:08:30</v>
+        <v>2023-10-06 10:22:53</v>
       </c>
       <c r="B87">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C87">
-        <v>98.87</v>
+        <v>105.24</v>
       </c>
       <c r="D87">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E87">
         <v>0.1</v>
@@ -2743,24 +2743,24 @@
         <v>8</v>
       </c>
       <c r="H87">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-10-03 15:11:44</v>
+        <v>2023-10-06 15:32:00</v>
       </c>
       <c r="B88">
-        <v>88.5</v>
+        <v>90</v>
       </c>
       <c r="C88">
-        <v>98.87</v>
+        <v>105.24</v>
       </c>
       <c r="D88">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E88">
         <v>0.1</v>
@@ -2772,24 +2772,24 @@
         <v>8</v>
       </c>
       <c r="H88">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-10-03 20:21:43</v>
+        <v>2023-10-06 20:42:08</v>
       </c>
       <c r="B89">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C89">
-        <v>98.87</v>
+        <v>105.24</v>
       </c>
       <c r="D89">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E89">
         <v>0.1</v>
@@ -2798,24 +2798,24 @@
         <v>0.08</v>
       </c>
       <c r="G89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H89">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-10-04 01:32:18</v>
+        <v>2023-10-07 01:52:08</v>
       </c>
       <c r="B90">
-        <v>88.5</v>
+        <v>87</v>
       </c>
       <c r="C90">
-        <v>98.87</v>
+        <v>105.24</v>
       </c>
       <c r="D90">
         <v>25</v>
@@ -2827,24 +2827,24 @@
         <v>0.08</v>
       </c>
       <c r="G90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H90">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-10-04 06:43:54</v>
+        <v>2023-10-07 07:02:38</v>
       </c>
       <c r="B91">
-        <v>88.5</v>
+        <v>87</v>
       </c>
       <c r="C91">
-        <v>110.37</v>
+        <v>111.61</v>
       </c>
       <c r="D91">
         <v>25</v>
@@ -2856,24 +2856,24 @@
         <v>0.08</v>
       </c>
       <c r="G91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H91">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-10-04 11:51:59</v>
+        <v>2023-10-07 12:12:16</v>
       </c>
       <c r="B92">
-        <v>88.5</v>
+        <v>87</v>
       </c>
       <c r="C92">
-        <v>110.37</v>
+        <v>111.61</v>
       </c>
       <c r="D92">
         <v>25</v>
@@ -2888,7 +2888,7 @@
         <v>8</v>
       </c>
       <c r="H92">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I92">
         <v>5</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-10-04 17:01:59</v>
+        <v>2023-10-07 17:22:16</v>
       </c>
       <c r="B93">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C93">
-        <v>110.37</v>
+        <v>111.61</v>
       </c>
       <c r="D93">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E93">
         <v>0.1</v>
@@ -2914,27 +2914,27 @@
         <v>0.08</v>
       </c>
       <c r="G93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H93">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-10-04 22:11:58</v>
+        <v>2023-10-07 22:32:16</v>
       </c>
       <c r="B94">
-        <v>89.99</v>
+        <v>85</v>
       </c>
       <c r="C94">
-        <v>110.37</v>
+        <v>111.61</v>
       </c>
       <c r="D94">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E94">
         <v>0.1</v>
@@ -2946,24 +2946,24 @@
         <v>8</v>
       </c>
       <c r="H94">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-10-05 03:21:58</v>
+        <v>2023-10-08 03:42:16</v>
       </c>
       <c r="B95">
-        <v>89.99</v>
+        <v>85</v>
       </c>
       <c r="C95">
-        <v>105.24</v>
+        <v>111.61</v>
       </c>
       <c r="D95">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E95">
         <v>0.1</v>
@@ -2975,24 +2975,24 @@
         <v>8</v>
       </c>
       <c r="H95">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-10-05 08:31:58</v>
+        <v>2023-10-08 08:52:16</v>
       </c>
       <c r="B96">
-        <v>89.99</v>
+        <v>84.5</v>
       </c>
       <c r="C96">
-        <v>105.24</v>
+        <v>111.61</v>
       </c>
       <c r="D96">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E96">
         <v>0.1</v>
@@ -3001,27 +3001,27 @@
         <v>0.08</v>
       </c>
       <c r="G96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H96">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-10-05 13:41:58</v>
+        <v>2023-10-08 14:02:14</v>
       </c>
       <c r="B97">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C97">
-        <v>105.24</v>
+        <v>111.61</v>
       </c>
       <c r="D97">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E97">
         <v>0.1</v>
@@ -3030,27 +3030,27 @@
         <v>0.08</v>
       </c>
       <c r="G97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H97">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-10-05 18:51:57</v>
+        <v>2023-10-08 19:12:13</v>
       </c>
       <c r="B98">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C98">
-        <v>105.24</v>
+        <v>111.61</v>
       </c>
       <c r="D98">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E98">
         <v>0.1</v>
@@ -3059,27 +3059,27 @@
         <v>0.08</v>
       </c>
       <c r="G98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H98">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-10-06 00:02:19</v>
+        <v>2023-10-09 00:22:13</v>
       </c>
       <c r="B99">
-        <v>87.8</v>
+        <v>83</v>
       </c>
       <c r="C99">
-        <v>105.24</v>
+        <v>111.61</v>
       </c>
       <c r="D99">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E99">
         <v>0.1</v>
@@ -3088,27 +3088,27 @@
         <v>0.08</v>
       </c>
       <c r="G99">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H99">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-10-06 05:11:53</v>
+        <v>2023-10-09 05:32:13</v>
       </c>
       <c r="B100">
-        <v>87.8</v>
+        <v>84.5</v>
       </c>
       <c r="C100">
-        <v>105.24</v>
+        <v>105.62</v>
       </c>
       <c r="D100">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E100">
         <v>0.1</v>
@@ -3117,27 +3117,27 @@
         <v>0.08</v>
       </c>
       <c r="G100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H100">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-10-06 10:22:53</v>
+        <v>2023-10-09 10:42:13</v>
       </c>
       <c r="B101">
-        <v>88</v>
+        <v>84.5</v>
       </c>
       <c r="C101">
-        <v>105.24</v>
+        <v>105.62</v>
       </c>
       <c r="D101">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E101">
         <v>0.1</v>
@@ -3146,10 +3146,10 @@
         <v>0.08</v>
       </c>
       <c r="G101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H101">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I101">
         <v>6</v>
@@ -3157,16 +3157,16 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-10-06 15:32:00</v>
+        <v>2023-10-09 15:45:38</v>
       </c>
       <c r="B102">
-        <v>90</v>
+        <v>84.5</v>
       </c>
       <c r="C102">
-        <v>105.24</v>
+        <v>105.62</v>
       </c>
       <c r="D102">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E102">
         <v>0.1</v>
@@ -3175,10 +3175,10 @@
         <v>0.08</v>
       </c>
       <c r="G102">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H102">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I102">
         <v>6</v>
@@ -3186,16 +3186,16 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-10-06 20:42:08</v>
+        <v>2023-10-09 20:55:26</v>
       </c>
       <c r="B103">
-        <v>90</v>
+        <v>84.9</v>
       </c>
       <c r="C103">
-        <v>105.24</v>
+        <v>105.62</v>
       </c>
       <c r="D103">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E103">
         <v>0.1</v>
@@ -3204,24 +3204,24 @@
         <v>0.08</v>
       </c>
       <c r="G103">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H103">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I103">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-10-07 01:52:08</v>
+        <v>2023-10-10 02:05:26</v>
       </c>
       <c r="B104">
-        <v>87</v>
+        <v>84.9</v>
       </c>
       <c r="C104">
-        <v>105.24</v>
+        <v>115.25</v>
       </c>
       <c r="D104">
         <v>25</v>
@@ -3233,10 +3233,10 @@
         <v>0.08</v>
       </c>
       <c r="G104">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H104">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I104">
         <v>5</v>
@@ -3244,13 +3244,13 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-10-07 07:02:38</v>
+        <v>2023-10-10 07:15:26</v>
       </c>
       <c r="B105">
-        <v>87</v>
+        <v>84.9</v>
       </c>
       <c r="C105">
-        <v>111.61</v>
+        <v>115.25</v>
       </c>
       <c r="D105">
         <v>25</v>
@@ -3262,10 +3262,10 @@
         <v>0.08</v>
       </c>
       <c r="G105">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H105">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I105">
         <v>5</v>
@@ -3273,13 +3273,13 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-07 12:12:16</v>
+        <v>2023-10-10 12:25:26</v>
       </c>
       <c r="B106">
-        <v>87</v>
+        <v>84.9</v>
       </c>
       <c r="C106">
-        <v>111.61</v>
+        <v>115.25</v>
       </c>
       <c r="D106">
         <v>25</v>
@@ -3291,10 +3291,10 @@
         <v>0.08</v>
       </c>
       <c r="G106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H106">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I106">
         <v>5</v>
@@ -3302,16 +3302,16 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-07 17:22:16</v>
+        <v>2023-10-10 17:35:34</v>
       </c>
       <c r="B107">
-        <v>85</v>
+        <v>84.9</v>
       </c>
       <c r="C107">
-        <v>111.61</v>
+        <v>115.25</v>
       </c>
       <c r="D107">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E107">
         <v>0.1</v>
@@ -3323,24 +3323,24 @@
         <v>7</v>
       </c>
       <c r="H107">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I107">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-07 22:32:16</v>
+        <v>2023-10-10 22:45:33</v>
       </c>
       <c r="B108">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C108">
-        <v>111.61</v>
+        <v>115.25</v>
       </c>
       <c r="D108">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E108">
         <v>0.1</v>
@@ -3355,21 +3355,21 @@
         <v>75</v>
       </c>
       <c r="I108">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-08 03:42:16</v>
+        <v>2023-10-11 03:55:33</v>
       </c>
       <c r="B109">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C109">
-        <v>111.61</v>
+        <v>115.25</v>
       </c>
       <c r="D109">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E109">
         <v>0.1</v>
@@ -3384,21 +3384,21 @@
         <v>75</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-08 08:52:16</v>
+        <v>2023-10-11 09:05:33</v>
       </c>
       <c r="B110">
-        <v>84.5</v>
+        <v>82</v>
       </c>
       <c r="C110">
-        <v>111.61</v>
+        <v>115.25</v>
       </c>
       <c r="D110">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E110">
         <v>0.1</v>
@@ -3407,27 +3407,27 @@
         <v>0.08</v>
       </c>
       <c r="G110">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H110">
         <v>75</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-08 14:02:14</v>
+        <v>2023-10-11 14:15:33</v>
       </c>
       <c r="B111">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C111">
-        <v>111.61</v>
+        <v>115.25</v>
       </c>
       <c r="D111">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E111">
         <v>0.1</v>
@@ -3436,27 +3436,27 @@
         <v>0.08</v>
       </c>
       <c r="G111">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H111">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I111">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-08 19:12:13</v>
+        <v>2023-10-11 19:25:33</v>
       </c>
       <c r="B112">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C112">
-        <v>111.61</v>
+        <v>115.25</v>
       </c>
       <c r="D112">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E112">
         <v>0.1</v>
@@ -3465,27 +3465,27 @@
         <v>0.08</v>
       </c>
       <c r="G112">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H112">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I112">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-09 00:22:13</v>
+        <v>2023-10-12 00:35:33</v>
       </c>
       <c r="B113">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C113">
-        <v>111.61</v>
+        <v>115.25</v>
       </c>
       <c r="D113">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E113">
         <v>0.1</v>
@@ -3494,27 +3494,27 @@
         <v>0.08</v>
       </c>
       <c r="G113">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H113">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I113">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-09 05:32:13</v>
+        <v>2023-10-12 05:45:29</v>
       </c>
       <c r="B114">
-        <v>84.5</v>
+        <v>82</v>
       </c>
       <c r="C114">
-        <v>105.62</v>
+        <v>110.05</v>
       </c>
       <c r="D114">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E114">
         <v>0.1</v>
@@ -3523,358 +3523,358 @@
         <v>0.08</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H114">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I114">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-09 10:42:13</v>
+        <v>2023-10-12 10:55:55</v>
       </c>
       <c r="B115">
-        <v>84.5</v>
+        <v>82</v>
       </c>
       <c r="C115">
-        <v>105.62</v>
+        <v>110.05</v>
       </c>
       <c r="D115">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E115">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F115">
         <v>0.08</v>
       </c>
       <c r="G115">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H115">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I115">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-09 15:45:38</v>
+        <v>2023-10-12 16:05:37</v>
       </c>
       <c r="B116">
-        <v>84.5</v>
+        <v>82</v>
       </c>
       <c r="C116">
-        <v>105.62</v>
+        <v>110.05</v>
       </c>
       <c r="D116">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E116">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F116">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H116">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-09 20:55:26</v>
+        <v>2023-10-12 21:16:01</v>
       </c>
       <c r="B117">
-        <v>84.9</v>
+        <v>81</v>
       </c>
       <c r="C117">
-        <v>105.62</v>
+        <v>110.05</v>
       </c>
       <c r="D117">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E117">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F117">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H117">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-10 02:05:26</v>
+        <v>2023-10-13 02:25:45</v>
       </c>
       <c r="B118">
-        <v>84.9</v>
+        <v>81.8</v>
       </c>
       <c r="C118">
-        <v>115.25</v>
+        <v>107.83</v>
       </c>
       <c r="D118">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E118">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F118">
         <v>0.08</v>
       </c>
       <c r="G118">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H118">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I118">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-10 07:15:26</v>
+        <v>2023-10-13 07:35:45</v>
       </c>
       <c r="B119">
-        <v>84.9</v>
+        <v>81.8</v>
       </c>
       <c r="C119">
-        <v>115.25</v>
+        <v>107.83</v>
       </c>
       <c r="D119">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E119">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F119">
         <v>0.08</v>
       </c>
       <c r="G119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H119">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I119">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-10 12:25:26</v>
+        <v>2023-10-13 12:45:45</v>
       </c>
       <c r="B120">
-        <v>84.9</v>
+        <v>82</v>
       </c>
       <c r="C120">
-        <v>115.25</v>
+        <v>107.83</v>
       </c>
       <c r="D120">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E120">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F120">
         <v>0.08</v>
       </c>
       <c r="G120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H120">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I120">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-10 17:35:34</v>
+        <v>2023-10-13 17:55:40</v>
       </c>
       <c r="B121">
-        <v>84.9</v>
+        <v>82</v>
       </c>
       <c r="C121">
-        <v>115.25</v>
+        <v>107.83</v>
       </c>
       <c r="D121">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F121">
         <v>0.08</v>
       </c>
       <c r="G121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H121">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I121">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-10 22:45:33</v>
+        <v>2023-10-13 23:05:40</v>
       </c>
       <c r="B122">
         <v>84</v>
       </c>
       <c r="C122">
-        <v>115.25</v>
+        <v>107.83</v>
       </c>
       <c r="D122">
         <v>28</v>
       </c>
       <c r="E122">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F122">
         <v>0.08</v>
       </c>
       <c r="G122">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H122">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I122">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-11 03:55:33</v>
+        <v>2023-10-14 04:15:39</v>
       </c>
       <c r="B123">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C123">
-        <v>115.25</v>
+        <v>107.83</v>
       </c>
       <c r="D123">
         <v>28</v>
       </c>
       <c r="E123">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F123">
         <v>0.08</v>
       </c>
       <c r="G123">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H123">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I123">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-11 09:05:33</v>
+        <v>2023-10-14 09:25:39</v>
       </c>
       <c r="B124">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C124">
-        <v>115.25</v>
+        <v>107.83</v>
       </c>
       <c r="D124">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E124">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F124">
         <v>0.08</v>
       </c>
       <c r="G124">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H124">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I124">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-11 14:15:33</v>
+        <v>2023-10-14 14:35:39</v>
       </c>
       <c r="B125">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C125">
-        <v>115.25</v>
+        <v>107.83</v>
       </c>
       <c r="D125">
         <v>30</v>
       </c>
       <c r="E125">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F125">
         <v>0.08</v>
       </c>
       <c r="G125">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H125">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I125">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-11 19:25:33</v>
+        <v>2023-10-14 19:45:39</v>
       </c>
       <c r="B126">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C126">
-        <v>115.25</v>
+        <v>107.83</v>
       </c>
       <c r="D126">
         <v>30</v>
       </c>
       <c r="E126">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F126">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G126">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H126">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I126">
         <v>9</v>
@@ -3882,71 +3882,71 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-12 00:35:33</v>
+        <v>2023-10-15 00:55:39</v>
       </c>
       <c r="B127">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C127">
-        <v>115.25</v>
+        <v>107.83</v>
       </c>
       <c r="D127">
         <v>30</v>
       </c>
       <c r="E127">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F127">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G127">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H127">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I127">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-12 05:45:29</v>
+        <v>2023-10-15 05:59:07</v>
       </c>
       <c r="B128">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C128">
-        <v>110.05</v>
+        <v>109.72</v>
       </c>
       <c r="D128">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E128">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F128">
         <v>0.08</v>
       </c>
       <c r="G128">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H128">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I128">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-12 10:55:55</v>
+        <v>2023-10-15 11:09:07</v>
       </c>
       <c r="B129">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C129">
-        <v>110.05</v>
+        <v>109.72</v>
       </c>
       <c r="D129">
         <v>31</v>
@@ -3958,85 +3958,85 @@
         <v>0.08</v>
       </c>
       <c r="G129">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H129">
         <v>74</v>
       </c>
       <c r="I129">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-12 16:05:37</v>
+        <v>2023-10-15 16:19:07</v>
       </c>
       <c r="B130">
         <v>82</v>
       </c>
       <c r="C130">
-        <v>110.05</v>
+        <v>109.72</v>
       </c>
       <c r="D130">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E130">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F130">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G130">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H130">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I130">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-12 21:16:01</v>
+        <v>2023-10-15 21:29:07</v>
       </c>
       <c r="B131">
         <v>81</v>
       </c>
       <c r="C131">
-        <v>110.05</v>
+        <v>109.72</v>
       </c>
       <c r="D131">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E131">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F131">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G131">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H131">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I131">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-13 02:25:45</v>
+        <v>2023-10-16 02:39:08</v>
       </c>
       <c r="B132">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="C132">
-        <v>107.83</v>
+        <v>113.42</v>
       </c>
       <c r="D132">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E132">
         <v>0.09</v>
@@ -4045,10 +4045,10 @@
         <v>0.08</v>
       </c>
       <c r="G132">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H132">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I132">
         <v>10</v>
@@ -4056,16 +4056,16 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-13 07:35:45</v>
+        <v>2023-10-16 07:49:08</v>
       </c>
       <c r="B133">
-        <v>81.8</v>
+        <v>81</v>
       </c>
       <c r="C133">
-        <v>107.83</v>
+        <v>113.42</v>
       </c>
       <c r="D133">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E133">
         <v>0.09</v>
@@ -4074,10 +4074,10 @@
         <v>0.08</v>
       </c>
       <c r="G133">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H133">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I133">
         <v>10</v>
@@ -4085,16 +4085,16 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-13 12:45:45</v>
+        <v>2023-10-16 12:59:08</v>
       </c>
       <c r="B134">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C134">
-        <v>107.83</v>
+        <v>113.42</v>
       </c>
       <c r="D134">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E134">
         <v>0.09</v>
@@ -4103,10 +4103,10 @@
         <v>0.08</v>
       </c>
       <c r="G134">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H134">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I134">
         <v>10</v>
@@ -4114,222 +4114,222 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-13 17:55:40</v>
+        <v>2023-10-16 18:08:55</v>
       </c>
       <c r="B135">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C135">
-        <v>107.83</v>
+        <v>113.42</v>
       </c>
       <c r="D135">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E135">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F135">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G135">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H135">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I135">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-13 23:05:40</v>
+        <v>2023-10-16 23:18:54</v>
       </c>
       <c r="B136">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C136">
-        <v>107.83</v>
+        <v>113.42</v>
       </c>
       <c r="D136">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E136">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F136">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G136">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H136">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I136">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-14 04:15:39</v>
+        <v>2023-10-17 04:28:54</v>
       </c>
       <c r="B137">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C137">
-        <v>107.83</v>
+        <v>112.58</v>
       </c>
       <c r="D137">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E137">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F137">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G137">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H137">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I137">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-14 09:25:39</v>
+        <v>2023-10-17 09:38:54</v>
       </c>
       <c r="B138">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C138">
-        <v>107.83</v>
+        <v>112.58</v>
       </c>
       <c r="D138">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E138">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F138">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G138">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H138">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I138">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-14 14:35:39</v>
+        <v>2023-10-17 14:48:52</v>
       </c>
       <c r="B139">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C139">
-        <v>107.83</v>
+        <v>112.58</v>
       </c>
       <c r="D139">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E139">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F139">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G139">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H139">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I139">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-14 19:45:39</v>
+        <v>2023-10-17 19:58:51</v>
       </c>
       <c r="B140">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C140">
-        <v>107.83</v>
+        <v>112.58</v>
       </c>
       <c r="D140">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E140">
         <v>0.08</v>
       </c>
       <c r="F140">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="G140">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H140">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I140">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-15 00:55:39</v>
+        <v>2023-10-18 01:08:51</v>
       </c>
       <c r="B141">
-        <v>84</v>
+        <v>80.98</v>
       </c>
       <c r="C141">
-        <v>107.83</v>
+        <v>112.58</v>
       </c>
       <c r="D141">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E141">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F141">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G141">
         <v>11</v>
       </c>
       <c r="H141">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I141">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-15 05:59:07</v>
+        <v>2023-10-18 06:18:49</v>
       </c>
       <c r="B142">
-        <v>84</v>
+        <v>80.98</v>
       </c>
       <c r="C142">
-        <v>109.72</v>
+        <v>107.12</v>
       </c>
       <c r="D142">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E142">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F142">
         <v>0.08</v>
@@ -4338,27 +4338,27 @@
         <v>11</v>
       </c>
       <c r="H142">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I142">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-15 11:09:07</v>
+        <v>2023-10-18 11:28:50</v>
       </c>
       <c r="B143">
-        <v>84</v>
+        <v>81.8</v>
       </c>
       <c r="C143">
-        <v>109.72</v>
+        <v>107.12</v>
       </c>
       <c r="D143">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E143">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F143">
         <v>0.08</v>
@@ -4367,94 +4367,94 @@
         <v>11</v>
       </c>
       <c r="H143">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I143">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-15 16:19:07</v>
+        <v>2023-10-18 16:38:49</v>
       </c>
       <c r="B144">
-        <v>82</v>
+        <v>81.5</v>
       </c>
       <c r="C144">
-        <v>109.72</v>
+        <v>107.12</v>
       </c>
       <c r="D144">
         <v>33</v>
       </c>
       <c r="E144">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F144">
         <v>0.08</v>
       </c>
       <c r="G144">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H144">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I144">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-15 21:29:07</v>
+        <v>2023-10-18 21:48:50</v>
       </c>
       <c r="B145">
-        <v>81</v>
+        <v>81.4</v>
       </c>
       <c r="C145">
-        <v>109.72</v>
+        <v>107.12</v>
       </c>
       <c r="D145">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E145">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F145">
         <v>0.08</v>
       </c>
       <c r="G145">
+        <v>10</v>
+      </c>
+      <c r="H145">
+        <v>74</v>
+      </c>
+      <c r="I145">
         <v>12</v>
-      </c>
-      <c r="H145">
-        <v>62</v>
-      </c>
-      <c r="I145">
-        <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-16 02:39:08</v>
+        <v>2023-10-19 02:58:49</v>
       </c>
       <c r="B146">
-        <v>81</v>
+        <v>81.4</v>
       </c>
       <c r="C146">
-        <v>113.42</v>
+        <v>105.88</v>
       </c>
       <c r="D146">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E146">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F146">
         <v>0.08</v>
       </c>
       <c r="G146">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H146">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I146">
         <v>10</v>
@@ -4462,59 +4462,30 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-16 07:49:08</v>
+        <v>2023-10-19 08:08:49</v>
       </c>
       <c r="B147">
-        <v>81</v>
+        <v>81.4</v>
       </c>
       <c r="C147">
-        <v>113.42</v>
+        <v>105.88</v>
       </c>
       <c r="D147">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E147">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F147">
         <v>0.08</v>
       </c>
       <c r="G147">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H147">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I147">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>2023-10-16 12:59:08</v>
-      </c>
-      <c r="B148">
-        <v>81</v>
-      </c>
-      <c r="C148">
-        <v>113.42</v>
-      </c>
-      <c r="D148">
-        <v>35</v>
-      </c>
-      <c r="E148">
-        <v>0.09</v>
-      </c>
-      <c r="F148">
-        <v>0.08</v>
-      </c>
-      <c r="G148">
-        <v>12</v>
-      </c>
-      <c r="H148">
-        <v>63</v>
-      </c>
-      <c r="I148">
         <v>10</v>
       </c>
     </row>
@@ -4527,7 +4498,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I148"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I147"/>
   </ignoredErrors>
 </worksheet>
 </file>